--- a/biology/Zoologie/Gènes_de_la_drosophile/Gènes_de_la_drosophile.xlsx
+++ b/biology/Zoologie/Gènes_de_la_drosophile/Gènes_de_la_drosophile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A8nes_de_la_drosophile</t>
+          <t>Gènes_de_la_drosophile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La drosophile Drosophila melanogaster est un animal modèle de la génétique. Sa petite taille, son taux de reproduction ainsi que son cycle de vie court permettent d'en faire facilement l'élevage dans de simples bocaux à confiture avec des moyens relativement simples. Ceci permet de conduire des expériences de génétique.
 Cette mouche a un génome constitué de 13 000 gènes et porté sur 4 paires de chromosomes : Chromosome X, 2, 3 et 4 (qui porte relativement peu de gènes : il est très rarement étudié).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A8nes_de_la_drosophile</t>
+          <t>Gènes_de_la_drosophile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Mutants / Gènes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il convient de préciser qu'il n'existe pas de noms français de ces gènes.
 Cette partie est en restructuration. Seuls les noms de gènes avec leur abréviation entre parenthèses sont valides.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A8nes_de_la_drosophile</t>
+          <t>Gènes_de_la_drosophile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Éléments génétiques transposables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gypsy
 PiggyBac</t>
